--- a/output/extracted_product_data.xlsx
+++ b/output/extracted_product_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>3-4</t>
   </si>
@@ -43,24 +43,24 @@
     <t>STYLE</t>
   </si>
   <si>
+    <t>386</t>
+  </si>
+  <si>
     <t>62</t>
   </si>
   <si>
-    <t>386</t>
+    <t>470</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>470</t>
+    <t>524</t>
   </si>
   <si>
     <t>144</t>
   </si>
   <si>
-    <t>524</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -70,31 +70,19 @@
     <t>135</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>155</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>85</t>
   </si>
   <si>
-    <t>105</t>
+    <t>Purchase_Order_-_jbx6404_123026755_cotton_candy.pdf</t>
+  </si>
+  <si>
+    <t>Purchase_Order_-_123028433_JBX6595_JET_BLACK.pdf</t>
   </si>
   <si>
     <t>Purchase_Order_-_123028205_JBX5544_ALMOND_BLOSSOM.pdf</t>
-  </si>
-  <si>
-    <t>Purchase_Order_-_123028433_JBX6595_JET_BLACK.pdf</t>
-  </si>
-  <si>
-    <t>Purchase_Order_jbx6404-_123026759_cotton_candy.pdf</t>
-  </si>
-  <si>
-    <t>Purchase_Order_-_jbx6404_123026755_cotton_candy.pdf</t>
   </si>
 </sst>
 </file>
@@ -452,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,23 +485,23 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -536,71 +524,42 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
